--- a/fhir/core/2.2.0/CodeSystem-dk-core-regional-subdivision-codes.xlsx
+++ b/fhir/core/2.2.0/CodeSystem-dk-core-regional-subdivision-codes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>Property</t>
   </si>
@@ -48,19 +48,19 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
   </si>
   <si>
-    <t>true</t>
+    <t>false</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-30T22:07:34+02:00</t>
+    <t>2023-05-04T21:35:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Case Sensitive</t>
-  </si>
-  <si>
-    <t>false</t>
   </si>
   <si>
     <t>Value Set (all codes)</t>
@@ -425,53 +422,53 @@
         <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>35</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -489,75 +486,75 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>39</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>42</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>44</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="D6" s="2"/>
     </row>

--- a/fhir/core/2.2.0/CodeSystem-dk-core-regional-subdivision-codes.xlsx
+++ b/fhir/core/2.2.0/CodeSystem-dk-core-regional-subdivision-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T21:35:52+02:00</t>
+    <t>2023-05-05T01:37:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
